--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3548119.780449378</v>
+        <v>3547285.458033995</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613644</v>
+        <v>5736895.963613641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259459</v>
+        <v>1138458.516131349</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5591650.733753589</v>
+        <v>5596114.775208986</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>140.1462017063034</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>48.26237606288993</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -822,19 +822,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>115.7570833851393</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>213.176054231393</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>36.71976673481365</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>120.092682051191</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.7572758017328</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>193.5927947728079</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1147,13 +1147,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>238.6311756091326</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>311.6127132380821</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U10" t="n">
-        <v>184.721648222935</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>386.2974485047765</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535253</v>
+        <v>386.2018254167945</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>380.5977712448019</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>390.3752939652042</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>396.9985885627812</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>384.819481903028</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>287.9778930354911</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975959</v>
+        <v>65.66672569302949</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>114.1067450907721</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>200.1628998495417</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>89.50703201096924</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>326.517659753816</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>360.101178493115</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>376.8154444896689</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>377.1057869583227</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>166.0011899670359</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>149.5609193508326</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>138.078178867251</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>139.4801876172957</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>143.1632952674466</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>145.7563678006439</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>95.36106607364904</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501636</v>
+        <v>64.59847177828627</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>164.7063310758208</v>
       </c>
       <c r="T13" t="n">
-        <v>149.4624383029108</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>260.148646616269</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>202.6668222620549</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019337</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.3182183363576</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>232.7516946125847</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
@@ -1833,7 +1833,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862714</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>74.3173196004728</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>137.9544975261234</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>120.0171659757502</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>11.24823478164906</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>86.26036257407063</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106875</v>
+        <v>379.3536586392112</v>
       </c>
       <c r="C26" t="n">
-        <v>182.9334352849923</v>
+        <v>379.2580355512292</v>
       </c>
       <c r="D26" t="n">
-        <v>384.748275150713</v>
+        <v>373.6539813792367</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711152</v>
+        <v>383.4315040996389</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686922</v>
+        <v>390.0547986972159</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>377.8756920374627</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414021</v>
+        <v>281.0341031699258</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894047</v>
+        <v>58.72293582746416</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.257248996683</v>
+        <v>107.1629552252067</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554527</v>
+        <v>152.2146225184079</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>227.7245775944516</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>319.5738698882507</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>353.1573886275497</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>369.8716546241036</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>370.1619970927574</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>159.0574001014705</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567436</v>
+        <v>121.3710085207815</v>
       </c>
       <c r="D28" t="n">
-        <v>55.85356778400767</v>
+        <v>131.1343890016857</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.5363977517303</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2195054018812</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854408</v>
+        <v>121.3460714139645</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956001</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419725</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759078</v>
+        <v>210.3879424044315</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>253.2048567507037</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890573</v>
+        <v>249.5136586175809</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617563</v>
+        <v>209.19511429028</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106875</v>
+        <v>389.031081002481</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227055</v>
+        <v>388.935457914499</v>
       </c>
       <c r="D29" t="n">
-        <v>384.748275150713</v>
+        <v>383.3314037425065</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711152</v>
+        <v>393.1089264629087</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686922</v>
+        <v>399.7322210604858</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>201.3872914861145</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>290.7115255331956</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894047</v>
+        <v>68.40035819073402</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.257248996683</v>
+        <v>116.8403775884766</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554527</v>
+        <v>202.8965323472462</v>
       </c>
       <c r="U29" t="n">
-        <v>31.39997732821475</v>
+        <v>237.4019999577214</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>329.2512922515206</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>362.8348109908196</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>379.5490769873734</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>379.8394194560273</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729469</v>
+        <v>168.7348224647404</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567436</v>
+        <v>152.2945518485371</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>142.2138201150002</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.4900002983485</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0234937772344</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997956001</v>
+        <v>98.09469857135356</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419725</v>
+        <v>67.3321042759908</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>46.90721747161754</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759078</v>
+        <v>220.0653647677014</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527162</v>
+        <v>254.0590007445097</v>
       </c>
       <c r="W31" t="n">
-        <v>256.2834848335094</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>218.8725366535499</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106875</v>
+        <v>389.031081002481</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227055</v>
+        <v>388.935457914499</v>
       </c>
       <c r="D32" t="n">
-        <v>384.748275150713</v>
+        <v>383.3314037425065</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711152</v>
+        <v>393.1089264629087</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>399.7322210604858</v>
       </c>
       <c r="G32" t="n">
-        <v>388.969985808939</v>
+        <v>387.5531144007326</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414021</v>
+        <v>290.7115255331956</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894049</v>
+        <v>68.40035819073402</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2572489966831</v>
+        <v>116.8403775884766</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554527</v>
+        <v>202.8965323472462</v>
       </c>
       <c r="U32" t="n">
-        <v>31.39997732821385</v>
+        <v>51.23617704310389</v>
       </c>
       <c r="V32" t="n">
-        <v>330.668163659727</v>
+        <v>329.2512922515206</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>362.8348109908196</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>379.5490769873734</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642337</v>
+        <v>379.8394194560273</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>168.7348224647404</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232066</v>
+        <v>142.2138201150002</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>112.2184262264808</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419726</v>
+        <v>67.3321042759908</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.0653647677014</v>
       </c>
       <c r="U34" t="n">
-        <v>255.850409997515</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527162</v>
+        <v>254.0590007445097</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890573</v>
+        <v>259.1910809808508</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>218.8725366535499</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679658</v>
+        <v>205.4004547597594</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106875</v>
+        <v>389.031081002481</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227055</v>
+        <v>388.935457914499</v>
       </c>
       <c r="D35" t="n">
-        <v>384.748275150713</v>
+        <v>383.3314037425065</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711152</v>
+        <v>393.1089264629087</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686922</v>
+        <v>399.7322210604858</v>
       </c>
       <c r="G35" t="n">
-        <v>388.969985808939</v>
+        <v>387.5531144007326</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>172.9460608093116</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>116.8403775884766</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554527</v>
+        <v>202.8965323472462</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659279</v>
+        <v>237.4019999577214</v>
       </c>
       <c r="V35" t="n">
-        <v>241.5065186186963</v>
+        <v>329.2512922515206</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>362.8348109908196</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>379.5490769873734</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642337</v>
+        <v>379.8394194560273</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729469</v>
+        <v>168.7348224647404</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>142.228682773162</v>
+        <v>111.5074726976746</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997956002</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419726</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.4399635735253</v>
       </c>
       <c r="T37" t="n">
-        <v>209.0447244341924</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>262.8822791139735</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>254.0590007445097</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>259.1910809808508</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617563</v>
+        <v>218.8725366535499</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>205.4004547597594</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106875</v>
+        <v>389.0310810024811</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227055</v>
+        <v>388.9354579144991</v>
       </c>
       <c r="D38" t="n">
-        <v>384.748275150713</v>
+        <v>383.3314037425066</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711152</v>
+        <v>393.1089264629088</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>399.7322210604858</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>387.5531144007326</v>
       </c>
       <c r="H38" t="n">
-        <v>292.1283969414021</v>
+        <v>290.7115255331957</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894049</v>
+        <v>68.40035819073407</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.2572489966831</v>
+        <v>116.8403775884766</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>202.8965323472463</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>237.4019999577215</v>
       </c>
       <c r="V38" t="n">
-        <v>123.249269622013</v>
+        <v>329.2512922515206</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>362.8348109908196</v>
       </c>
       <c r="X38" t="n">
-        <v>380.9659483955799</v>
+        <v>193.3832540727545</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>379.8394194560273</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>168.7348224647404</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>152.2945518485371</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>140.8118113649556</v>
       </c>
       <c r="E40" t="n">
-        <v>77.28878550933965</v>
+        <v>142.2138201150002</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419726</v>
+        <v>67.33210427599084</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>167.4399635735253</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>220.0653647677014</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890573</v>
+        <v>164.9221811648232</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>218.8725366535499</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>205.4004547597594</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>97.46748333863208</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,10 +3900,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.60514786915869</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>165.0580707202332</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>13.99263448916707</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>80.39790293131064</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6830684215697</v>
+        <v>1689.631969834255</v>
       </c>
       <c r="C2" t="n">
-        <v>968.5988817752439</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4369,13 +4369,13 @@
         <v>1831.193789739612</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.443914928612</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X2" t="n">
-        <v>1381.800517097565</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y2" t="n">
-        <v>980.8638440456551</v>
+        <v>1831.193789739612</v>
       </c>
     </row>
     <row r="3">
@@ -4388,46 +4388,46 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.070068790185</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1724.070068790185</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>446.1308508172355</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>275.037478378952</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>275.037478378952</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>684.4747129575521</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>446.1308508172355</v>
+        <v>1355.834634541974</v>
       </c>
       <c r="Y4" t="n">
-        <v>446.1308508172355</v>
+        <v>1131.098935930739</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>504.391567161839</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C5" t="n">
-        <v>498.3073805155132</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D5" t="n">
-        <v>497.8838546489778</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E5" t="n">
-        <v>83.54363916587454</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
-        <v>1846.479361096332</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.912714533713</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="W5" t="n">
-        <v>1312.152413668882</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="X5" t="n">
-        <v>911.5090158378343</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="Y5" t="n">
-        <v>510.5723427859244</v>
+        <v>1609.460982775414</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4634,31 +4634,31 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
         <v>1541.851827451147</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1488.694590483298</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C7" t="n">
-        <v>1317.601218045015</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D7" t="n">
-        <v>1317.601218045015</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E7" t="n">
-        <v>1156.690402913334</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>992.0592770239257</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>824.8088859494691</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1901.862513360013</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1901.862513360013</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1901.862513360013</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1901.862513360013</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1622.792848868887</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="X7" t="n">
-        <v>1622.792848868887</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="Y7" t="n">
-        <v>1622.792848868887</v>
+        <v>307.7185867198193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881.5511617534477</v>
+        <v>484.2909016982387</v>
       </c>
       <c r="C8" t="n">
-        <v>875.4669751071218</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D8" t="n">
-        <v>875.0434492405864</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
-        <v>864.7436377978871</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1846.479361096332</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N8" t="n">
-        <v>1846.479361096332</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1625.006205902585</v>
       </c>
       <c r="V8" t="n">
-        <v>1603.135651610684</v>
+        <v>1275.168651239065</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.135651610684</v>
+        <v>891.408350374234</v>
       </c>
       <c r="X8" t="n">
-        <v>1202.492253779636</v>
+        <v>891.408350374234</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.7319373775331</v>
+        <v>490.4716773223241</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>219.3581718355396</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>675.1644281008383</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>1192.007362767164</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767164</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767164</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P9" t="n">
         <v>1708.850297433489</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>317.6057762023659</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>317.6057762023659</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.755001445043</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.755001445043</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>780.6853369539178</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>542.3414748136012</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>317.6057762023659</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2409.039232863482</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>2018.936378907124</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1634.494185730556</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1240.175706977825</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>839.167031661884</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>450.4604842850881</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>159.5737236431779</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4546.925546055612</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4344.740798732843</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4254.32965528742</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.98692220683</v>
+        <v>3924.513837354273</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3560.775273219813</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3180.153612119138</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2799.238675797599</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.371818948615</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.371818948615</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.1649570942416</v>
+        <v>912.8396724149852</v>
       </c>
       <c r="C13" t="n">
-        <v>697.8684954906429</v>
+        <v>761.7680367070735</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1707616482378</v>
+        <v>622.2951287603553</v>
       </c>
       <c r="E13" t="n">
-        <v>437.0568573512421</v>
+        <v>481.4060503590466</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512421</v>
+        <v>336.7966612000097</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>189.5680068559249</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>189.5680068559249</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>126.9495512652707</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>301.1251831569461</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>580.645587606444</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>889.5329482163747</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1189.995034780062</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1469.178949275974</v>
       </c>
       <c r="P13" t="n">
-        <v>1761.542230672484</v>
+        <v>1694.477693695024</v>
       </c>
       <c r="Q13" t="n">
-        <v>1856.27421278407</v>
+        <v>1779.629027666972</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1714.378046072743</v>
       </c>
       <c r="S13" t="n">
-        <v>1800.798405294154</v>
+        <v>1548.008014683026</v>
       </c>
       <c r="T13" t="n">
-        <v>1649.826245392224</v>
+        <v>1548.008014683026</v>
       </c>
       <c r="U13" t="n">
-        <v>1649.826245392224</v>
+        <v>1285.231603959521</v>
       </c>
       <c r="V13" t="n">
-        <v>1649.826245392224</v>
+        <v>1285.231603959521</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.553491735783</v>
+        <v>1285.231603959521</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.006540430152</v>
+        <v>1285.231603959521</v>
       </c>
       <c r="Y13" t="n">
-        <v>997.0677526536011</v>
+        <v>1080.517642078658</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>1402.950983437843</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M15" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
         <v>1789.888428857139</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>354.35070365408</v>
+        <v>494.3549844251414</v>
       </c>
       <c r="C16" t="n">
-        <v>213.0542420504813</v>
+        <v>494.3549844251414</v>
       </c>
       <c r="D16" t="n">
-        <v>213.0542420504813</v>
+        <v>494.3549844251414</v>
       </c>
       <c r="E16" t="n">
-        <v>213.0542420504813</v>
+        <v>494.3549844251414</v>
       </c>
       <c r="F16" t="n">
-        <v>213.0542420504813</v>
+        <v>359.5207693704175</v>
       </c>
       <c r="G16" t="n">
-        <v>213.0542420504813</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5469,19 +5469,19 @@
         <v>1644.203548008749</v>
       </c>
       <c r="U16" t="n">
-        <v>1409.100826177856</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V16" t="n">
-        <v>1165.011991952063</v>
+        <v>1147.113477163765</v>
       </c>
       <c r="W16" t="n">
-        <v>915.7392382956218</v>
+        <v>897.8407235073238</v>
       </c>
       <c r="X16" t="n">
-        <v>707.1922869899901</v>
+        <v>689.2937722016919</v>
       </c>
       <c r="Y16" t="n">
-        <v>512.2534992134396</v>
+        <v>494.3549844251414</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5600,22 +5600,22 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M18" t="n">
-        <v>1548.467481689963</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.467481689963</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.588806248371</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C19" t="n">
-        <v>701.588806248371</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="D19" t="n">
-        <v>571.8910724059659</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="E19" t="n">
-        <v>571.8910724059659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U19" t="n">
-        <v>1338.04534048635</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V19" t="n">
-        <v>1338.04534048635</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.977340889913</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X19" t="n">
-        <v>1054.430389584281</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y19" t="n">
-        <v>859.4916018077306</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>809.8415093489451</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764622</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5794,7 +5794,7 @@
         <v>3463.023532176685</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180322</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.037282963096</v>
@@ -5837,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>242.9542576166784</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1085.931338311245</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>1085.931338311245</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>703.0049767029616</v>
+        <v>565.5514964631901</v>
       </c>
       <c r="C22" t="n">
-        <v>703.0049767029616</v>
+        <v>565.5514964631901</v>
       </c>
       <c r="D22" t="n">
-        <v>703.0049767029616</v>
+        <v>565.5514964631901</v>
       </c>
       <c r="E22" t="n">
-        <v>571.8910724059659</v>
+        <v>434.4375921661943</v>
       </c>
       <c r="F22" t="n">
-        <v>437.0568573512421</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114703</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5913,13 +5913,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1699.679355498665</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T22" t="n">
-        <v>1489.927527310052</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U22" t="n">
-        <v>1489.927527310052</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V22" t="n">
-        <v>1245.838693084258</v>
+        <v>1093.956506260556</v>
       </c>
       <c r="W22" t="n">
-        <v>1106.490715785144</v>
+        <v>844.6837526041155</v>
       </c>
       <c r="X22" t="n">
-        <v>897.9437644795121</v>
+        <v>844.6837526041155</v>
       </c>
       <c r="Y22" t="n">
-        <v>703.0049767029616</v>
+        <v>723.4542920225497</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -6025,7 +6025,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>3958.227793985246</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713.1875340095646</v>
+        <v>620.0619485594032</v>
       </c>
       <c r="C25" t="n">
-        <v>571.8910724059659</v>
+        <v>608.7000952446061</v>
       </c>
       <c r="D25" t="n">
-        <v>571.8910724059659</v>
+        <v>479.002361402201</v>
       </c>
       <c r="E25" t="n">
-        <v>571.8910724059659</v>
+        <v>347.8884571052052</v>
       </c>
       <c r="F25" t="n">
-        <v>437.0568573512421</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6153,7 +6153,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M25" t="n">
         <v>927.8555407749236</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>1646.522384595457</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>1646.522384595457</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>1402.433550369663</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W25" t="n">
-        <v>1153.160796713223</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="X25" t="n">
-        <v>1066.029117345475</v>
+        <v>972.9035318953132</v>
       </c>
       <c r="Y25" t="n">
-        <v>871.0903295689242</v>
+        <v>777.9647441187627</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2228.872195796475</v>
+        <v>2359.941728763525</v>
       </c>
       <c r="C26" t="n">
-        <v>2044.090948033857</v>
+        <v>1976.852803964304</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.4563266695</v>
+        <v>1599.424539944873</v>
       </c>
       <c r="E26" t="n">
-        <v>1256.94541972898</v>
+        <v>1212.119990349278</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252507</v>
+        <v>818.1252441904739</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606658</v>
+        <v>436.4326259708147</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>152.5597944860411</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4553.939475212749</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4400.187331254761</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4170.16250540178</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3847.36061662577</v>
       </c>
       <c r="W26" t="n">
-        <v>3393.185520716173</v>
+        <v>3490.635981648446</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427709</v>
+        <v>3117.028249704907</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.264066918382</v>
+        <v>2743.127242540506</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>539.2203908277461</v>
+        <v>742.3420533371311</v>
       </c>
       <c r="C28" t="n">
-        <v>383.9563269320455</v>
+        <v>619.7450750333114</v>
       </c>
       <c r="D28" t="n">
-        <v>327.5385816956741</v>
+        <v>487.28609624373</v>
       </c>
       <c r="E28" t="n">
-        <v>327.5385816956741</v>
+        <v>353.4109469995579</v>
       </c>
       <c r="F28" t="n">
-        <v>327.5385816956741</v>
+        <v>215.8154869976576</v>
       </c>
       <c r="G28" t="n">
-        <v>327.5385816956741</v>
+        <v>215.8154869976576</v>
       </c>
       <c r="H28" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984189</v>
+        <v>133.8239032321804</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232424</v>
+        <v>314.8738870907654</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058885</v>
+        <v>601.268643507173</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489673</v>
+        <v>917.0303560840133</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445803</v>
+        <v>1224.366794614611</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1510.425061077432</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.714701627061</v>
+        <v>1742.598157463391</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732157</v>
+        <v>1834.623843402249</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950139</v>
+        <v>1834.623843402249</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.751167372633</v>
+        <v>1834.623843402249</v>
       </c>
       <c r="T28" t="n">
-        <v>1283.031736891918</v>
+        <v>1622.11077026646</v>
       </c>
       <c r="U28" t="n">
-        <v>1283.031736891918</v>
+        <v>1366.348288700092</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.975300374022</v>
+        <v>1366.348288700092</v>
       </c>
       <c r="W28" t="n">
-        <v>761.7349444254797</v>
+        <v>1114.314290096475</v>
       </c>
       <c r="X28" t="n">
-        <v>539.2203908277461</v>
+        <v>903.006093843667</v>
       </c>
       <c r="Y28" t="n">
-        <v>539.2203908277461</v>
+        <v>903.006093843667</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2438.386230178004</v>
+        <v>2240.321661721375</v>
       </c>
       <c r="C29" t="n">
-        <v>2044.090948033857</v>
+        <v>1847.45756281784</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.4563266695</v>
+        <v>1460.254124694096</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.94541972898</v>
+        <v>1063.174400994189</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252507</v>
+        <v>659.4044807310715</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606658</v>
+        <v>455.9829741794407</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>162.3349685903542</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4544.164301108436</v>
       </c>
       <c r="T29" t="n">
-        <v>4336.355942357265</v>
+        <v>4339.21830883849</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.638793540887</v>
+        <v>4099.418308881195</v>
       </c>
       <c r="V29" t="n">
-        <v>3970.63054741995</v>
+        <v>3766.841246000871</v>
       </c>
       <c r="W29" t="n">
-        <v>3602.699555097702</v>
+        <v>3400.341436919235</v>
       </c>
       <c r="X29" t="n">
-        <v>3217.885465809237</v>
+        <v>3016.958530871383</v>
       </c>
       <c r="Y29" t="n">
-        <v>2832.77810129991</v>
+        <v>2633.282349602669</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>917.3518287999427</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3413.254164085223</v>
+        <v>772.1493185092831</v>
       </c>
       <c r="C31" t="n">
-        <v>3257.990100189522</v>
+        <v>618.3164378541951</v>
       </c>
       <c r="D31" t="n">
-        <v>3257.990100189522</v>
+        <v>618.3164378541951</v>
       </c>
       <c r="E31" t="n">
-        <v>3257.990100189522</v>
+        <v>474.6661145057101</v>
       </c>
       <c r="F31" t="n">
-        <v>3109.188282842696</v>
+        <v>474.6661145057101</v>
       </c>
       <c r="G31" t="n">
-        <v>3109.188282842696</v>
+        <v>324.676215214449</v>
       </c>
       <c r="H31" t="n">
-        <v>3109.188282842696</v>
+        <v>192.3292518031012</v>
       </c>
       <c r="I31" t="n">
-        <v>3008.671545489606</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3038.268400197402</v>
+        <v>124.2432550925432</v>
       </c>
       <c r="K31" t="n">
-        <v>3208.335033222225</v>
+        <v>295.7125908114911</v>
       </c>
       <c r="L31" t="n">
-        <v>3483.746438804872</v>
+        <v>572.5266990882616</v>
       </c>
       <c r="M31" t="n">
-        <v>3788.52480054795</v>
+        <v>878.7077635254648</v>
       </c>
       <c r="N31" t="n">
-        <v>4084.877888244786</v>
+        <v>1176.463553916425</v>
       </c>
       <c r="O31" t="n">
-        <v>4359.952803873845</v>
+        <v>1452.941172239609</v>
       </c>
       <c r="P31" t="n">
-        <v>4581.142549426043</v>
+        <v>1675.533620485931</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1757.978658285152</v>
       </c>
       <c r="R31" t="n">
-        <v>4592.741474749122</v>
+        <v>1689.966431743747</v>
       </c>
       <c r="S31" t="n">
-        <v>4592.741474749122</v>
+        <v>1642.585403994638</v>
       </c>
       <c r="T31" t="n">
-        <v>4369.022044268407</v>
+        <v>1420.297156754536</v>
       </c>
       <c r="U31" t="n">
-        <v>4102.053205357114</v>
+        <v>1420.297156754536</v>
       </c>
       <c r="V31" t="n">
-        <v>3843.996768839219</v>
+        <v>1163.671903477253</v>
       </c>
       <c r="W31" t="n">
-        <v>3585.124561936684</v>
+        <v>1163.671903477253</v>
       </c>
       <c r="X31" t="n">
-        <v>3585.124561936684</v>
+        <v>942.5885331201321</v>
       </c>
       <c r="Y31" t="n">
-        <v>3585.124561936684</v>
+        <v>942.5885331201321</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2438.386230178005</v>
+        <v>2428.367947493716</v>
       </c>
       <c r="C32" t="n">
-        <v>2044.090948033857</v>
+        <v>2035.503848590182</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.456326669501</v>
+        <v>1648.300410466438</v>
       </c>
       <c r="E32" t="n">
-        <v>1256.94541972898</v>
+        <v>1251.22068676653</v>
       </c>
       <c r="F32" t="n">
-        <v>851.7443162252508</v>
+        <v>847.450766503413</v>
       </c>
       <c r="G32" t="n">
-        <v>458.8453406606659</v>
+        <v>455.9829741794407</v>
       </c>
       <c r="H32" t="n">
-        <v>163.7661518309667</v>
+        <v>162.3349685903542</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4544.164301108436</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4339.21830883849</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.638793540887</v>
+        <v>4287.464594653537</v>
       </c>
       <c r="V32" t="n">
-        <v>3970.630547419951</v>
+        <v>3954.887531773213</v>
       </c>
       <c r="W32" t="n">
-        <v>3602.699555097703</v>
+        <v>3588.387722691577</v>
       </c>
       <c r="X32" t="n">
-        <v>3217.885465809238</v>
+        <v>3205.004816643725</v>
       </c>
       <c r="Y32" t="n">
-        <v>2832.778101299911</v>
+        <v>2821.32863537501</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>688.6756868418017</v>
+        <v>350.2459667224218</v>
       </c>
       <c r="C34" t="n">
-        <v>533.4116229461011</v>
+        <v>350.2459667224218</v>
       </c>
       <c r="D34" t="n">
-        <v>389.7462868115941</v>
+        <v>350.2459667224218</v>
       </c>
       <c r="E34" t="n">
-        <v>244.6647802224965</v>
+        <v>206.5956433739368</v>
       </c>
       <c r="F34" t="n">
-        <v>244.6647802224965</v>
+        <v>206.5956433739368</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>206.5956433739368</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6858,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984188</v>
+        <v>124.2432550925432</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232423</v>
+        <v>295.7125908114911</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058884</v>
+        <v>572.5266990882616</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489672</v>
+        <v>878.7077635254648</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445803</v>
+        <v>1176.463553916425</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1452.941172239609</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.714701627061</v>
+        <v>1675.533620485931</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732157</v>
+        <v>1757.978658285152</v>
       </c>
       <c r="R34" t="n">
-        <v>1677.313626950139</v>
+        <v>1689.966431743747</v>
       </c>
       <c r="S34" t="n">
-        <v>1677.313626950139</v>
+        <v>1689.966431743747</v>
       </c>
       <c r="T34" t="n">
-        <v>1677.313626950139</v>
+        <v>1467.678184503644</v>
       </c>
       <c r="U34" t="n">
-        <v>1418.878869376892</v>
+        <v>1467.678184503644</v>
       </c>
       <c r="V34" t="n">
-        <v>1160.822432858997</v>
+        <v>1211.052931226362</v>
       </c>
       <c r="W34" t="n">
-        <v>897.5820769104541</v>
+        <v>949.2437585184316</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5820769104541</v>
+        <v>728.1603881613105</v>
       </c>
       <c r="Y34" t="n">
-        <v>688.6756868418017</v>
+        <v>520.6851813332707</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2438.386230178005</v>
+        <v>2240.321661721375</v>
       </c>
       <c r="C35" t="n">
-        <v>2044.090948033857</v>
+        <v>1847.45756281784</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.456326669501</v>
+        <v>1460.254124694096</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.94541972898</v>
+        <v>1063.174400994189</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252508</v>
+        <v>659.4044807310715</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606659</v>
+        <v>267.9366884070992</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4544.164301108436</v>
       </c>
       <c r="T35" t="n">
-        <v>4455.807709020582</v>
+        <v>4339.21830883849</v>
       </c>
       <c r="U35" t="n">
-        <v>4214.576525822675</v>
+        <v>4099.418308881195</v>
       </c>
       <c r="V35" t="n">
-        <v>3970.630547419951</v>
+        <v>3766.841246000871</v>
       </c>
       <c r="W35" t="n">
-        <v>3602.699555097703</v>
+        <v>3400.341436919235</v>
       </c>
       <c r="X35" t="n">
-        <v>3217.885465809238</v>
+        <v>3016.958530871383</v>
       </c>
       <c r="Y35" t="n">
-        <v>2832.778101299911</v>
+        <v>2633.282349602669</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.13812587521</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>1914.095216421104</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1071.772388193679</v>
+        <v>205.8775084963547</v>
       </c>
       <c r="C37" t="n">
-        <v>916.5083242979783</v>
+        <v>205.8775084963547</v>
       </c>
       <c r="D37" t="n">
-        <v>772.8429881634713</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>627.7614815743736</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>478.9596642275478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>327.5385816956741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984188</v>
+        <v>124.2432550925432</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232423</v>
+        <v>295.7125908114911</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058884</v>
+        <v>572.5266990882616</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489672</v>
+        <v>878.7077635254648</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1176.463553916425</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1452.941172239609</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1675.533620485931</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1757.978658285152</v>
       </c>
       <c r="R37" t="n">
-        <v>1677.313626950139</v>
+        <v>1757.978658285152</v>
       </c>
       <c r="S37" t="n">
-        <v>1677.313626950139</v>
+        <v>1588.847381948258</v>
       </c>
       <c r="T37" t="n">
-        <v>1466.157339642874</v>
+        <v>1588.847381948258</v>
       </c>
       <c r="U37" t="n">
-        <v>1466.157339642874</v>
+        <v>1323.309726277577</v>
       </c>
       <c r="V37" t="n">
-        <v>1466.157339642874</v>
+        <v>1066.684473000295</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.157339642874</v>
+        <v>804.8753002923645</v>
       </c>
       <c r="X37" t="n">
-        <v>1243.642786045141</v>
+        <v>583.7919299352434</v>
       </c>
       <c r="Y37" t="n">
-        <v>1243.642786045141</v>
+        <v>376.3167231072036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2438.386230178005</v>
+        <v>2428.367947493717</v>
       </c>
       <c r="C38" t="n">
-        <v>2044.090948033857</v>
+        <v>2035.503848590182</v>
       </c>
       <c r="D38" t="n">
-        <v>1655.456326669501</v>
+        <v>1648.300410466438</v>
       </c>
       <c r="E38" t="n">
-        <v>1256.94541972898</v>
+        <v>1251.22068676653</v>
       </c>
       <c r="F38" t="n">
-        <v>851.7443162252508</v>
+        <v>847.4507665034132</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606659</v>
+        <v>455.9829741794408</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>162.3349685903542</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4544.164301108436</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4339.21830883849</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4099.418308881195</v>
       </c>
       <c r="V38" t="n">
-        <v>3970.630547419951</v>
+        <v>3766.841246000871</v>
       </c>
       <c r="W38" t="n">
-        <v>3602.699555097703</v>
+        <v>3400.341436919235</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.885465809238</v>
+        <v>3205.004816643725</v>
       </c>
       <c r="Y38" t="n">
-        <v>2832.778101299911</v>
+        <v>2821.328635375011</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>182.7137268369972</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.371818948615</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3668.250389831064</v>
+        <v>532.9610545880904</v>
       </c>
       <c r="C40" t="n">
-        <v>3512.986325935363</v>
+        <v>379.1281739330024</v>
       </c>
       <c r="D40" t="n">
-        <v>3369.320989800856</v>
+        <v>236.8940210391079</v>
       </c>
       <c r="E40" t="n">
-        <v>3291.251509488392</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3142.449692141566</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3142.449692141566</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3008.671545489606</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3008.671545489606</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3038.268400197402</v>
+        <v>124.2432550925432</v>
       </c>
       <c r="K40" t="n">
-        <v>3208.335033222225</v>
+        <v>295.7125908114911</v>
       </c>
       <c r="L40" t="n">
-        <v>3483.746438804872</v>
+        <v>572.5266990882615</v>
       </c>
       <c r="M40" t="n">
-        <v>3788.52480054795</v>
+        <v>878.7077635254645</v>
       </c>
       <c r="N40" t="n">
-        <v>4084.877888244786</v>
+        <v>1176.463553916425</v>
       </c>
       <c r="O40" t="n">
-        <v>4359.952803873845</v>
+        <v>1452.941172239609</v>
       </c>
       <c r="P40" t="n">
-        <v>4581.142549426043</v>
+        <v>1675.533620485931</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1757.978658285152</v>
       </c>
       <c r="R40" t="n">
-        <v>4592.741474749122</v>
+        <v>1689.966431743747</v>
       </c>
       <c r="S40" t="n">
-        <v>4422.179015171615</v>
+        <v>1520.835155406852</v>
       </c>
       <c r="T40" t="n">
-        <v>4198.4595846909</v>
+        <v>1298.54690816675</v>
       </c>
       <c r="U40" t="n">
-        <v>3931.490745779607</v>
+        <v>1298.54690816675</v>
       </c>
       <c r="V40" t="n">
-        <v>3931.490745779607</v>
+        <v>1298.54690816675</v>
       </c>
       <c r="W40" t="n">
-        <v>3668.250389831064</v>
+        <v>1131.9588463841</v>
       </c>
       <c r="X40" t="n">
-        <v>3668.250389831064</v>
+        <v>910.8754760269792</v>
       </c>
       <c r="Y40" t="n">
-        <v>3668.250389831064</v>
+        <v>703.4002691989393</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
         <v>2139.066799289355</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3048.67665537811</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>3458.672769375206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>4332.330861486824</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O42" t="n">
-        <v>4662.18488453114</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P42" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>333.6351992896726</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="C43" t="n">
-        <v>162.5418268513891</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V43" t="n">
-        <v>1263.484130926395</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W43" t="n">
-        <v>984.4144664352689</v>
+        <v>995.6397571710736</v>
       </c>
       <c r="X43" t="n">
-        <v>746.0706042949523</v>
+        <v>757.295895030757</v>
       </c>
       <c r="Y43" t="n">
-        <v>521.334905683717</v>
+        <v>757.295895030757</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C44" t="n">
         <v>2139.066799289355</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>223.7237178177785</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>223.7237178177785</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>223.7237178177785</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>223.7237178177785</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>223.7237178177785</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>223.7237178177785</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1297.821136963575</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>1015.022989509699</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V46" t="n">
-        <v>741.1372444492208</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W46" t="n">
-        <v>462.0675799580952</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X46" t="n">
-        <v>223.7237178177785</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y46" t="n">
-        <v>223.7237178177785</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>298.7361805822441</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -7999,7 +7999,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>501.1513772538824</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>392.2643757374374</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>296.9001458002834</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>524.3053858067748</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>395.7562197346342</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>337.4068669225207</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8476,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>230.7561945635733</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>233.6465907663771</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>375.2501498293875</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9005,16 +9005,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>448.4101882023532</v>
+        <v>743.5567912259809</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9023,7 +9023,7 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9248,25 +9248,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>399.3111077937234</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>743.7439864875635</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>207.3373116149456</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533856</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -9965,19 +9965,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>230.4550270113136</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>233.3761574284127</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>230.4550270113136</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>282.1764805785802</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10910,7 +10910,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>147.9380505529371</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
@@ -10919,13 +10919,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>174.4915021836165</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>812.0486393063214</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,13 +11308,13 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>145.1613354490477</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>128.2898612795298</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>58.19187160381611</v>
+        <v>217.3317322699968</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>251.3253682468052</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>256.4574484831463</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>216.1389041558454</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>76.76072710101647</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>17.71952964041441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>41.75961948232911</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.4627065194036</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>139.8834969875627</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.825528593753</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>72.97223392303484</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>128.6352622059136</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>120.2011192185048</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>207.4188940377132</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>41.00448746556847</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>21.24612096448575</v>
       </c>
       <c r="D28" t="n">
-        <v>86.3751149891543</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>138.8125779350786</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.41727620808371</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.65468191272094</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.7625412102554</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>244.3815783812398</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679658</v>
+        <v>195.7230323964895</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>186.165822914618</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>207.4188940377131</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.228682773162</v>
+        <v>140.8118113649555</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.8969277651511</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817317</v>
+        <v>120.5327461019077</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>262.8822791139735</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>4.324467555547869</v>
+        <v>259.1910809808508</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679658</v>
+        <v>205.4004547597594</v>
       </c>
     </row>
     <row r="32">
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>207.418894037714</v>
+        <v>186.1658229146176</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>152.2945518485371</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>140.8118113649555</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733576</v>
+        <v>145.8969277651511</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>148.4900002983485</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>18.80506755075352</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956002</v>
+        <v>98.09469857135356</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817317</v>
+        <v>167.4399635735253</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>8.448740524665055</v>
+        <v>262.8822791139735</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>117.765464723884</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>68.40035819073402</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.2572489966831</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>89.16164504103077</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>152.2945518485371</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>29.30433866728096</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>142.2138201150002</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.8969277651511</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>148.4900002983485</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0234937772344</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.09469857135356</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.3321042759908</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.43751174171541</v>
+        <v>220.0653647677014</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890573</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>207.418894037714</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>186.165822914619</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>66.34190601386697</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.8969277651511</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>148.4900002983485</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0234937772344</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956002</v>
+        <v>98.0946985713536</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>262.8822791139736</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>254.0590007445097</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>94.2688998160277</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>308.5558614412305</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>89.29455036116039</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,10 +25800,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>111.2208971259812</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.36515802722619</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>134.1187461534308</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>142.0904386938123</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>489333.2580861746</v>
+        <v>476086.9099682677</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>489333.2580861748</v>
+        <v>489333.2580861746</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>489333.2580861746</v>
+        <v>489333.2580861747</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>470405.74637546</v>
+        <v>485591.49232131</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>470405.7463754601</v>
+        <v>472345.1442034027</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>470405.7463754598</v>
+        <v>472345.144203403</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>470405.7463754598</v>
+        <v>472345.1442034028</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>470405.7463754598</v>
+        <v>472345.1442034027</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448955.4346793952</v>
+        <v>448955.4346793951</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>635241.3328265819</v>
       </c>
       <c r="D2" t="n">
-        <v>635241.3328265822</v>
+        <v>635241.332826582</v>
       </c>
       <c r="E2" t="n">
-        <v>615612.8085600274</v>
+        <v>598948.0480245952</v>
       </c>
       <c r="F2" t="n">
         <v>615612.8085600272</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600274</v>
+        <v>615612.808560027</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="I2" t="n">
-        <v>615612.8085600274</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="J2" t="n">
-        <v>591800.7776981589</v>
+        <v>610905.4258235847</v>
       </c>
       <c r="K2" t="n">
-        <v>591800.777698159</v>
+        <v>594240.6652881528</v>
       </c>
       <c r="L2" t="n">
-        <v>591800.7776981586</v>
+        <v>594240.6652881528</v>
       </c>
       <c r="M2" t="n">
-        <v>591800.7776981588</v>
+        <v>594240.6652881528</v>
       </c>
       <c r="N2" t="n">
-        <v>591800.7776981586</v>
+        <v>594240.6652881528</v>
       </c>
       <c r="O2" t="n">
-        <v>564814.9016934329</v>
+        <v>564814.9016934328</v>
       </c>
       <c r="P2" t="n">
-        <v>564814.9016934331</v>
+        <v>564814.9016934327</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>207986.9783898976</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7741.93789061589</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>150265.1102981858</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>155118.3712081971</v>
       </c>
       <c r="E4" t="n">
-        <v>30548.15734701356</v>
+        <v>20768.67956083354</v>
       </c>
       <c r="F4" t="n">
-        <v>30548.15734701356</v>
+        <v>30548.1573470135</v>
       </c>
       <c r="G4" t="n">
-        <v>30548.15734701357</v>
+        <v>30548.1573470135</v>
       </c>
       <c r="H4" t="n">
-        <v>30548.15734701356</v>
+        <v>30548.1573470135</v>
       </c>
       <c r="I4" t="n">
-        <v>30548.15734701356</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="J4" t="n">
-        <v>16574.40558728395</v>
+        <v>27785.69671613863</v>
       </c>
       <c r="K4" t="n">
-        <v>16574.40558728395</v>
+        <v>18006.21892995866</v>
       </c>
       <c r="L4" t="n">
-        <v>16574.40558728393</v>
+        <v>18006.21892995866</v>
       </c>
       <c r="M4" t="n">
-        <v>16574.40558728393</v>
+        <v>18006.21892995867</v>
       </c>
       <c r="N4" t="n">
-        <v>16574.40558728393</v>
+        <v>18006.21892995862</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="P4" t="n">
         <v>738.1279301446466</v>
@@ -26478,7 +26478,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>72531.58555620709</v>
       </c>
       <c r="F5" t="n">
         <v>73345.15677686482</v>
@@ -26493,19 +26493,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334106</v>
+        <v>73115.3430264153</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334106</v>
+        <v>72301.77180575757</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334106</v>
+        <v>72301.77180575757</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334106</v>
+        <v>72301.77180575757</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334106</v>
+        <v>72301.77180575757</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26524,46 +26524,46 @@
         <v>239798.3866467732</v>
       </c>
       <c r="C6" t="n">
-        <v>414753.8965398873</v>
+        <v>414753.8965398872</v>
       </c>
       <c r="D6" t="n">
-        <v>414753.8965398876</v>
+        <v>414753.8965398874</v>
       </c>
       <c r="E6" t="n">
-        <v>295990.5781556354</v>
+        <v>297567.7448130365</v>
       </c>
       <c r="F6" t="n">
-        <v>511719.4944361488</v>
+        <v>503927.2269961315</v>
       </c>
       <c r="G6" t="n">
-        <v>511719.494436149</v>
+        <v>511669.1648867473</v>
       </c>
       <c r="H6" t="n">
-        <v>511719.4944361491</v>
+        <v>511669.1648867479</v>
       </c>
       <c r="I6" t="n">
-        <v>511719.494436149</v>
+        <v>511669.1648867478</v>
       </c>
       <c r="J6" t="n">
-        <v>353912.1020959133</v>
+        <v>359676.8760212988</v>
       </c>
       <c r="K6" t="n">
-        <v>503043.715267534</v>
+        <v>503827.5446356714</v>
       </c>
       <c r="L6" t="n">
-        <v>503043.7152675337</v>
+        <v>503827.5446356714</v>
       </c>
       <c r="M6" t="n">
-        <v>342685.2647668511</v>
+        <v>343469.0941349887</v>
       </c>
       <c r="N6" t="n">
-        <v>503043.7152675337</v>
+        <v>503827.5446356714</v>
       </c>
       <c r="O6" t="n">
-        <v>493211.563518415</v>
+        <v>493030.9829257657</v>
       </c>
       <c r="P6" t="n">
-        <v>493211.5635184151</v>
+        <v>493030.9829257656</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306808</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.677422363269862</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306808</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.677422363269862</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>265.9727661615411</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>331.6603217932932</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>43.54462359522438</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>22.78436928752041</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>380.1003411910356</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>134.3972047718939</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.06543352837116</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>82.68617307340648</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27858,7 +27858,7 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>15.8587112139524</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>85.31459308330869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U10" t="n">
-        <v>95.24851775640209</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633798</v>
+        <v>19.82151936306807</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715709</v>
+        <v>26.76530922863341</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715709</v>
+        <v>17.08788686536354</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536355</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715708</v>
+        <v>17.08788686536351</v>
       </c>
     </row>
     <row r="41">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34719,7 +34719,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>471.1119924130248</v>
-      </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35172,23 +35172,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>244.2170912967376</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.3869557635733</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635734</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>317.6858660909701</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533851</v>
+        <v>34.0463167420686</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>175.934981708763</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>282.3438428782808</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>312.0074349595259</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>303.4970571350381</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>282.0039540362743</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>227.5744893121715</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>86.01144845651336</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>390.8459044639358</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35968,25 +35968,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>341.746824055306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>151.2227878040966</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596356</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615762</v>
+        <v>40.99010660763393</v>
       </c>
       <c r="K28" t="n">
-        <v>171.784477802852</v>
+        <v>182.8787715743283</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>289.2876327438461</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8569310536149</v>
+        <v>318.9512248250912</v>
       </c>
       <c r="N28" t="n">
-        <v>299.346553229127</v>
+        <v>310.4408470006034</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>288.9477439018396</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062605</v>
+        <v>234.5182791777368</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060238</v>
+        <v>92.95523832207869</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L29" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M29" t="n">
         <v>784.1601929209636</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615762</v>
+        <v>31.31268424436407</v>
       </c>
       <c r="K31" t="n">
-        <v>171.784477802852</v>
+        <v>173.2013492110585</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>279.6102103805762</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8569310536149</v>
+        <v>309.2738024618214</v>
       </c>
       <c r="N31" t="n">
-        <v>299.346553229127</v>
+        <v>300.7634246373335</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>279.2703215385698</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062605</v>
+        <v>224.8408568144669</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060238</v>
+        <v>83.27781595880883</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615761</v>
+        <v>31.31268424436407</v>
       </c>
       <c r="K34" t="n">
-        <v>171.784477802852</v>
+        <v>173.2013492110585</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>279.6102103805762</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8569310536149</v>
+        <v>309.2738024618214</v>
       </c>
       <c r="N34" t="n">
-        <v>299.346553229127</v>
+        <v>300.7634246373335</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>279.2703215385698</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062605</v>
+        <v>224.8408568144669</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060237</v>
+        <v>83.27781595880883</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>227.9168455757764</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615761</v>
+        <v>31.31268424436407</v>
       </c>
       <c r="K37" t="n">
-        <v>171.784477802852</v>
+        <v>173.2013492110585</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>279.6102103805762</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8569310536149</v>
+        <v>309.2738024618214</v>
       </c>
       <c r="N37" t="n">
-        <v>299.346553229127</v>
+        <v>300.7634246373335</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>279.2703215385698</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062605</v>
+        <v>224.8408568144669</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060237</v>
+        <v>83.27781595880883</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
@@ -37639,13 +37639,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>120.2318671808127</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615761</v>
+        <v>31.31268424436404</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>173.2013492110584</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>279.6102103805762</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8569310536149</v>
+        <v>309.2738024618213</v>
       </c>
       <c r="N40" t="n">
-        <v>299.346553229127</v>
+        <v>300.7634246373335</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>279.2703215385697</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>224.8408568144669</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060237</v>
+        <v>83.27781595880879</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>758.8552459125715</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
